--- a/m2/UnityProject/Assets/Scene/9000_Test/doc/DebriControl.xlsx
+++ b/m2/UnityProject/Assets/Scene/9000_Test/doc/DebriControl.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A434822-9663-4196-96EC-BD63185D939F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="true"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E16758D-7726-4F57-87CC-9ED7337FB5B9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="config" sheetId="6" r:id="rId2"/>
-    <sheet name="setting.ini" sheetId="5" r:id="rId3"/>
-    <sheet name="help" sheetId="4" r:id="rId4"/>
-    <sheet name="template-statefunc" sheetId="3" r:id="rId5"/>
-    <sheet name="template-source" sheetId="2" r:id="rId6"/>
+    <sheet name="help" sheetId="10" r:id="rId14"/>
+    <sheet name="setting.ini" sheetId="9" r:id="rId13"/>
+    <sheet name="template-statefunc" sheetId="8" r:id="rId12"/>
+    <sheet name="template-source" sheetId="7" r:id="rId11"/>
+    <sheet name="config" sheetId="6" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>thumbnail</t>
   </si>
@@ -462,6 +463,304 @@
     $contents2$_x000D_
 }_x000D_
 </t>
+  </si>
+  <si>
+    <t>!pos</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>brcond</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>66,208</t>
+  </si>
+  <si>
+    <t>852,421</t>
+  </si>
+  <si>
+    <t>315,209</t>
+  </si>
+  <si>
+    <t>576,200</t>
+  </si>
+  <si>
+    <t>915,139</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/13 20:19:57
+; * pssgEditor version : 0.12.1363.f6ceb30f93e348ddc47a9eeacdea10a54ab41447
+psggfile=@@@
+DebriControl.psgg
+@@@
+xlsfile=@@@
+DebriControl.xlsx
+@@@
+guid=@@@
+1f719e53-365b-4369-8025-c5f6c43a228f
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":66,"y":208}},{"Key":"S_END","Value":{"x":852,"y":421}},{"Key":"S_INIT","Value":{"x":315,"y":209}},{"Key":"S_WAIT","Value":{"x":576,"y":200}},{"Key":"S_FIRE","Value":{"x":915,"y":139}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=0
+option_delete_bracket_string=0
+option_delete_s_state_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-4
+</t>
+  </si>
+  <si>
+    <t>:output=DebriControl_created.cs
+::tempfunc=template-func.txt
+:enc=utf-8
+::
+public partial class DebriControl : StateManager {
+    public void Start()
+    {
+        Goto(S_START);
+    }
+    $contents2$
+}
+</t>
+  </si>
+  <si>
+    <t>/*
+    [[state]]
+    [[state-cmt]]
+*/
+void [[state]](bool bFirst)
+{
+    if (bFirst)
+    {
+        [[init]]
+    }
+    [[update]]
+    &lt;&lt;&lt;?wait
+    if (![[wait]]) return;
+    &gt;&gt;&gt;
+    [[post_wait]]
+    [[branch]]
+    &lt;&lt;&lt;?nextstate        
+    if (!HasNextState())
+    {
+        SetNextState([[nextstate]]);
+    }
+    &gt;&gt;&gt;
+    if (HasNextState())
+    {
+        &lt;&lt;&lt;?nowait
+            NoWait();
+        &gt;&gt;&gt;
+        GoNextState();
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>[setting]
+converter=psggConverterLib.dll
+psgg=DebriControl.psgg
+xls=DebriControl.xlsx
+sub_src=DebriControl.cs
+gen_src=DebriControl_created.cs
+manager_src=StateManager.cs
+manager_dir=base
+template_src=template-source.txt
+template_func=template-statefunc.txt
+help=help.ini
+[setupinfo]
+lang=c#
+framework=
+prefix=Debri
+xlsdir=C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\doc
+gendir=C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\sc
+genrdir=..\sc
+[jpn]
+title=C# サンプル 1
+detail=@@@
+C# 用のステートマシンを作成します。
+# ドキュメント用フォルダ
+   ステート図ファイルとEditor起動用ショートカットを格納
+      C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\doc
+  以下のファイルを作成します。
+      DebriControl.pssg   --- PSSG Editorで次のエクセルファイルを開く。
+      DebriControl.xlsx   --- ステート図格納用Excelファイル。PSSG Editorが編集。
+# ソース用フォルダ　
+　PSSG Editorが生成ソースファイル、ユーザ実装ソースファイル、及び管理クラスファイルを格納
+      C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\sc
+  以下のファイルが作成されます。
+      DebriControl_created.cs  --- Excelファイルからの変換ソースコード。変換プロセスの度に上書きされる。
+                                        ※生成直後は関数なしのクラス定義のみ
+     DebriControl.cs          --- ユーザ実装用　（ここにプログラムを書く！）
+                                        ※生成直後は関数なしのクラス定義のみ
+# 共通管理クラスファイル
+　以下に作成されます。
+      C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\sc/base/StateManager.cs
+注意 : 既に同じ名前でファイルがある場合、生成されません。
+　　　 削除してから生成してください。
+記 2018.7.7
+@@@
+[en]
+title=C# Sample 1
+detail=@@@
+This dialog will create files for a state machine.
+# Document Folder 
+　This folder will contain a state chart file and the shortcut of the editor.
+      C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\doc
+  File:
+      DebriControl.pssg  --- PSSG Editor opens the below excel file.
+      DebriControl.xlsx  --- Excel File that has a state chart. PSSG Editor edits this file.
+# Source Folder 
+   This folder will contain a source file generated by PSSG Editor, a user implemetation source file, and a manager source file.
+      C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\sc
+　File:
+      DebriControl_created.cs   -- PSSG Editor will convert from the excel file to this file. This file will overwriten whenever using the converting process of PSSG Editor.
+                                        * The file has only a class define without methods immediately after this creation.
+      DebriControl.cs　　　　　 -- For implementation. (You have to write program in this file!!)
+                                        * The file has only class define without methods immediately after this creation. 
+# Common State Manager Class File
+  File:
+      C:\Users\gea01\Documents\psgg\samples\EscapeFromMars\m2\UnityProject\Assets\Scene\9000_Test\sc/base/StateManager.cs 
+NOTE : If the same name files exists, the file will not be created.
+       Please delete the same name files ahead of the creation.
+Wrote 2018.7.7
+@@@
+</t>
+  </si>
+  <si>
+    <t>; -----
+; 項目説明
+; -----
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[thumbnail]
+jpn=@@@
+説明用のイメージを指定する。
+@@@
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[init]
+jpn=@@@
+初期化用処理を指定する。
+@@@
+en=@@@
+Specify a initial process.
+@@@
+[update]
+jpn=@@@
+更新処理を指定する。
+@@@
+en=@@@
+Specify a update process.
+@@@
+[wait]
+jpn=@@@
+待ち条件を指定する。
+true時にループを解除する。
+@@@
+en=@@@
+Specify a waiting condition.
+Release the loop if the condition is true.
+@@@
+[post_wait]
+jpn=@@@
+'wait'後の処理を指定する。
+@@@
+en=@@@
+Specify the post process after 'wait'.
+@@@
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[nextstate]
+jpn=@@@
+次に実行するステートを指定する。
+@@@
+en=@@@
+Specify the next state to be executed.
+@@@
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[!dir]
+jpn=@@@
+システムがステートのディレクトリ指定に使用。
+@@@
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[!uuid]
+jpn=@@@
+システムがステートのuuid指定に使用。
+@@@
+en=@@@
+System uses this for the uuid of the state.
+@@@</t>
   </si>
 </sst>
 </file>
@@ -550,13 +849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -572,43 +871,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.39994506668294"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.39994506668294"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,101 +953,101 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1036,13 +1335,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -1050,7 +1349,7 @@
     <col min="1" max="16384" width="15.625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" s="7" customFormat="true" ht="144.75" customHeight="true">
       <c r="A1" s="16"/>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -1062,7 +1361,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1">
+    <row r="2" s="3" customFormat="true">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1086,7 +1385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1">
+    <row r="3" s="6" customFormat="true">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>11</v>
@@ -1110,7 +1409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="4" s="9" customFormat="true" ht="18.75" customHeight="true">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>15</v>
@@ -1132,7 +1431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1">
+    <row r="5" s="10" customFormat="true">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1142,7 +1441,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" ht="18.75" customHeight="1">
+    <row r="6" s="10" customFormat="true" ht="18.75" customHeight="true">
       <c r="A6" s="19"/>
       <c r="B6" s="19" t="s">
         <v>16</v>
@@ -1158,7 +1457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="10" customFormat="1">
+    <row r="7" s="10" customFormat="true">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -1168,7 +1467,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" ht="18.75" customHeight="1">
+    <row r="8" s="10" customFormat="true" ht="18.75" customHeight="true">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
         <v>19</v>
@@ -1180,7 +1479,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" s="10" customFormat="1">
+    <row r="9" s="10" customFormat="true">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -1190,7 +1489,7 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" s="10" customFormat="1">
+    <row r="10" s="10" customFormat="true">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
         <v>20</v>
@@ -1204,7 +1503,7 @@
       </c>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" s="10" customFormat="1">
+    <row r="11" s="10" customFormat="true">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
         <v>1</v>
@@ -1216,7 +1515,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8" s="10" customFormat="1">
+    <row r="12" s="10" customFormat="true">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1226,7 +1525,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" s="10" customFormat="1">
+    <row r="13" s="10" customFormat="true">
       <c r="A13" s="19"/>
       <c r="B13" s="19" t="s">
         <v>22</v>
@@ -1240,71 +1539,95 @@
       </c>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" s="12" customFormat="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21" t="s">
+    <row r="14" s="10" customFormat="true">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" s="12" customFormat="true">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" s="13" customFormat="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="1:8" s="13" customFormat="1">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="18.75" customHeight="true">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" s="13" customFormat="true">
       <c r="A17" s="25"/>
       <c r="B17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" s="13" customFormat="true">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H18" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="13" customFormat="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+    <row r="19" s="13" customFormat="true">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1313,101 +1636,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F575A250-4BE6-4F1A-9109-D4DA3709D375}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="15" t="s">
-        <v>37</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77991DF-86F0-42FA-B88E-1C890914F224}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="15" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E25B4F6-85E7-42C7-9DFA-0FFED208A75E}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="15" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD392E4-CDEA-4DF1-A369-CD25690A0FD3}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="15" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10039352-1CE6-4562-9414-2F2FBCA69D9F}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="15" t="s">
-        <v>38</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>